--- a/trendybox_sales1.xlsx
+++ b/trendybox_sales1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tutorials\Unit 4\Tutorial 4.2.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92616A0C-6210-41BD-9EEF-F10F956510D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA220742-C641-4E44-A7FE-A7853FE0D5CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25180" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -388,7 +388,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -411,7 +411,7 @@
         <v>44957</v>
       </c>
       <c r="B2">
-        <v>492</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
@@ -419,7 +419,7 @@
         <v>44985</v>
       </c>
       <c r="B3">
-        <v>575</v>
+        <v>444</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -427,7 +427,7 @@
         <v>45016</v>
       </c>
       <c r="B4">
-        <v>215</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
@@ -435,7 +435,7 @@
         <v>45046</v>
       </c>
       <c r="B5">
-        <v>506</v>
+        <v>612</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
@@ -443,7 +443,7 @@
         <v>45077</v>
       </c>
       <c r="B6">
-        <v>524</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
@@ -451,7 +451,7 @@
         <v>45107</v>
       </c>
       <c r="B7">
-        <v>377</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
@@ -459,7 +459,7 @@
         <v>45138</v>
       </c>
       <c r="B8">
-        <v>287</v>
+        <v>519</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
@@ -467,7 +467,7 @@
         <v>45169</v>
       </c>
       <c r="B9">
-        <v>596</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
@@ -475,7 +475,7 @@
         <v>45199</v>
       </c>
       <c r="B10">
-        <v>507</v>
+        <v>439</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
@@ -483,7 +483,7 @@
         <v>45230</v>
       </c>
       <c r="B11">
-        <v>422</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
@@ -491,7 +491,7 @@
         <v>45260</v>
       </c>
       <c r="B12">
-        <v>497</v>
+        <v>600</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
@@ -499,7 +499,7 @@
         <v>45291</v>
       </c>
       <c r="B13">
-        <v>479</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
@@ -507,7 +507,7 @@
         <v>45322</v>
       </c>
       <c r="B14">
-        <v>506</v>
+        <v>422</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
@@ -515,7 +515,7 @@
         <v>45350</v>
       </c>
       <c r="B15">
-        <v>507</v>
+        <v>476</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
@@ -523,7 +523,7 @@
         <v>45382</v>
       </c>
       <c r="B16">
-        <v>487</v>
+        <v>520</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -531,7 +531,7 @@
         <v>45412</v>
       </c>
       <c r="B17">
-        <v>512</v>
+        <v>610</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -539,7 +539,7 @@
         <v>45443</v>
       </c>
       <c r="B18">
-        <v>470</v>
+        <v>422</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -547,7 +547,7 @@
         <v>45473</v>
       </c>
       <c r="B19">
-        <v>484</v>
+        <v>465</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -555,7 +555,7 @@
         <v>45504</v>
       </c>
       <c r="B20">
-        <v>487</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -563,7 +563,7 @@
         <v>45535</v>
       </c>
       <c r="B21">
-        <v>503</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -571,7 +571,7 @@
         <v>45565</v>
       </c>
       <c r="B22">
-        <v>545</v>
+        <v>626</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -579,7 +579,7 @@
         <v>45596</v>
       </c>
       <c r="B23">
-        <v>506</v>
+        <v>642</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -587,7 +587,7 @@
         <v>45626</v>
       </c>
       <c r="B24">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -595,7 +595,7 @@
         <v>45657</v>
       </c>
       <c r="B25">
-        <v>226</v>
+        <v>546</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
